--- a/Feuille de temps.xlsx
+++ b/Feuille de temps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>Quoi</t>
+  </si>
+  <si>
+    <t>Charles et Fred</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Document de projet, diagramme de classes, dépôt git, création des classes de bases.</t>
   </si>
 </sst>
 </file>
@@ -33,8 +42,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -67,18 +76,18 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="168" formatCode="h:mm;@"/>
+      <numFmt numFmtId="165" formatCode="h:mm;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -396,7 +405,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,7 +413,7 @@
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="66.42578125" customWidth="1"/>
+    <col min="4" max="4" width="93.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -422,8 +431,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
